--- a/Autobooking/SOURCE/COLLECTION NONBANK_20220520.xlsx
+++ b/Autobooking/SOURCE/COLLECTION NONBANK_20220520.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huongle/Documents/Python/HuongLe/Autobooking/SOURCE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C9E59BD3-4DBE-C944-AC81-3B03C7AA55DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="VIETTEL"/>
-    <sheet r:id="rId2" sheetId="2" name="EPAY"/>
-    <sheet r:id="rId3" sheetId="3" name="MOMO"/>
-    <sheet r:id="rId4" sheetId="4" name="ONEPAY"/>
-    <sheet r:id="rId5" sheetId="5" name="VNPOST"/>
-    <sheet r:id="rId6" sheetId="6" name="AIRPAY"/>
-    <sheet r:id="rId7" sheetId="7" name="PAYOO"/>
-    <sheet r:id="rId8" sheetId="8" name="ZALOPAY"/>
-    <sheet r:id="rId9" sheetId="9" name="VNPAY"/>
-    <sheet r:id="rId10" sheetId="10" name="VNPAY_QR"/>
-    <sheet r:id="rId11" sheetId="11" name="GBM"/>
+    <sheet name="VIETTEL" sheetId="1" r:id="rId1"/>
+    <sheet name="EPAY" sheetId="2" r:id="rId2"/>
+    <sheet name="MOMO" sheetId="3" r:id="rId3"/>
+    <sheet name="ONEPAY" sheetId="4" r:id="rId4"/>
+    <sheet name="VNPOST" sheetId="5" r:id="rId5"/>
+    <sheet name="AIRPAY" sheetId="6" r:id="rId6"/>
+    <sheet name="PAYOO" sheetId="7" r:id="rId7"/>
+    <sheet name="ZALOPAY" sheetId="8" r:id="rId8"/>
+    <sheet name="VNPAY" sheetId="9" r:id="rId9"/>
+    <sheet name="VNPAY_QR" sheetId="10" r:id="rId10"/>
+    <sheet name="GBM" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Accountcol">#REF!</definedName>
     <definedName name="Assetcol">#REF!</definedName>
-    <definedName name="BU_CODE">[1]Master!$B$3</definedName>
-    <definedName name="DB_CODE">'[2]Import Header'!$C$4</definedName>
     <definedName name="T10COL">#REF!</definedName>
     <definedName name="T1COL">#REF!</definedName>
     <definedName name="T2COL">#REF!</definedName>
@@ -35,7 +39,20 @@
     <definedName name="T8COL">#REF!</definedName>
     <definedName name="T9COL">#REF!</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1266,8 +1283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1312,37 +1328,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdae3f3"/>
+        <fgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc2a3ff"/>
+        <fgColor rgb="FFC2A3FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFbdd7ee"/>
+        <fgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffccff"/>
+        <fgColor rgb="FFFFCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc5e0b4"/>
+        <fgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1404,16 +1420,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1491,7 +1507,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="dotted">
         <color rgb="FF000000"/>
@@ -1503,7 +1519,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1536,10 +1552,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="dotted">
         <color rgb="FF000000"/>
@@ -1554,7 +1570,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="dotted">
         <color rgb="FF000000"/>
@@ -1579,133 +1595,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1716,10 +1727,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1757,71 +1768,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1849,7 +1860,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1872,11 +1883,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1885,13 +1896,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1901,7 +1912,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1910,7 +1921,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1919,7 +1930,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1927,10 +1938,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1995,30 +2006,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="35" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="35" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="28" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="28" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>373</v>
       </c>
@@ -2045,7 +2055,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>374</v>
       </c>
@@ -2057,6 +2067,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>12780264902</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -2065,12 +2076,13 @@
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LR</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>376</v>
       </c>
@@ -2093,7 +2105,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>377</v>
       </c>
@@ -2110,7 +2122,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>379</v>
       </c>
@@ -2133,7 +2145,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>381</v>
       </c>
@@ -2156,7 +2168,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>383</v>
       </c>
@@ -2177,7 +2189,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>384</v>
       </c>
@@ -2198,7 +2210,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>385</v>
       </c>
@@ -2219,7 +2231,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>386</v>
       </c>
@@ -2240,7 +2252,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>387</v>
       </c>
@@ -2261,7 +2273,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>389</v>
       </c>
@@ -2282,7 +2294,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>390</v>
       </c>
@@ -2303,7 +2315,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>391</v>
       </c>
@@ -2326,7 +2338,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>393</v>
       </c>
@@ -2347,7 +2359,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>395</v>
       </c>
@@ -2368,7 +2380,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>397</v>
       </c>
@@ -2389,7 +2401,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>399</v>
       </c>
@@ -2410,7 +2422,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>401</v>
       </c>
@@ -2431,7 +2443,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>403</v>
       </c>
@@ -2452,7 +2464,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>404</v>
       </c>
@@ -2473,7 +2485,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+    <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>405</v>
       </c>
@@ -2490,7 +2502,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -2501,7 +2513,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -2512,7 +2524,7 @@
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -2523,7 +2535,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>406</v>
       </c>
@@ -2538,7 +2550,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>406</v>
       </c>
@@ -2553,7 +2565,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>406</v>
       </c>
@@ -2574,30 +2586,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2624,7 +2636,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -2636,6 +2648,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -2644,12 +2657,13 @@
       <c r="G2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LJ</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -2666,7 +2680,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -2683,7 +2697,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -2704,7 +2718,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -2725,7 +2739,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -2746,7 +2760,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -2767,7 +2781,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -2788,7 +2802,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2809,7 +2823,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -2830,7 +2844,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -2851,7 +2865,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,7 +2886,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -2893,7 +2907,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -2914,7 +2928,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -2935,7 +2949,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -2956,7 +2970,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2977,7 +2991,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2998,7 +3012,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -3019,7 +3033,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
@@ -3040,7 +3054,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -3063,30 +3077,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3113,7 +3127,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3125,6 +3139,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -3133,12 +3148,13 @@
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LJ</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3155,7 +3171,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3172,7 +3188,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3193,7 +3209,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3230,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3235,7 +3251,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -3256,7 +3272,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3277,7 +3293,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -3298,7 +3314,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3319,7 +3335,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -3340,7 +3356,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3361,7 +3377,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -3382,7 +3398,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -3403,7 +3419,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -3424,7 +3440,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -3445,7 +3461,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -3466,7 +3482,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -3487,7 +3503,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -3508,7 +3524,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -3529,7 +3545,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -3552,30 +3568,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="28" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="35" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="35" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="28" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="28" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>336</v>
       </c>
@@ -3602,7 +3617,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>337</v>
       </c>
@@ -3614,6 +3629,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>25300000000</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -3622,12 +3638,13 @@
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LR</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>339</v>
       </c>
@@ -3650,7 +3667,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>341</v>
       </c>
@@ -3667,7 +3684,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>343</v>
       </c>
@@ -3690,7 +3707,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>345</v>
       </c>
@@ -3711,7 +3728,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>347</v>
       </c>
@@ -3732,7 +3749,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>348</v>
       </c>
@@ -3753,7 +3770,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>349</v>
       </c>
@@ -3774,7 +3791,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>350</v>
       </c>
@@ -3795,7 +3812,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>351</v>
       </c>
@@ -3816,7 +3833,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>353</v>
       </c>
@@ -3837,7 +3854,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>354</v>
       </c>
@@ -3858,7 +3875,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>355</v>
       </c>
@@ -3881,7 +3898,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>357</v>
       </c>
@@ -3902,7 +3919,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>359</v>
       </c>
@@ -3923,7 +3940,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>361</v>
       </c>
@@ -3944,7 +3961,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>363</v>
       </c>
@@ -3965,7 +3982,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>365</v>
       </c>
@@ -3988,7 +4005,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>367</v>
       </c>
@@ -4009,7 +4026,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>368</v>
       </c>
@@ -4030,7 +4047,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>369</v>
       </c>
@@ -4053,7 +4070,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -4064,7 +4081,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -4075,7 +4092,7 @@
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -4086,7 +4103,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -4097,7 +4114,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -4108,7 +4125,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -4119,7 +4136,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -4136,30 +4153,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
@@ -4186,7 +4203,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>299</v>
       </c>
@@ -4198,6 +4215,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -4206,12 +4224,13 @@
       <c r="G2" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LJ</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>303</v>
       </c>
@@ -4228,7 +4247,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>305</v>
       </c>
@@ -4245,7 +4264,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>306</v>
       </c>
@@ -4266,7 +4285,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>308</v>
       </c>
@@ -4287,7 +4306,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>310</v>
       </c>
@@ -4308,7 +4327,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>311</v>
       </c>
@@ -4329,7 +4348,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>312</v>
       </c>
@@ -4350,7 +4369,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>313</v>
       </c>
@@ -4371,7 +4390,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>314</v>
       </c>
@@ -4392,7 +4411,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
@@ -4413,7 +4432,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>317</v>
       </c>
@@ -4434,7 +4453,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>318</v>
       </c>
@@ -4455,7 +4474,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>320</v>
       </c>
@@ -4476,7 +4495,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>322</v>
       </c>
@@ -4497,7 +4516,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>324</v>
       </c>
@@ -4518,7 +4537,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>326</v>
       </c>
@@ -4539,7 +4558,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>328</v>
       </c>
@@ -4560,7 +4579,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>330</v>
       </c>
@@ -4581,7 +4600,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>331</v>
       </c>
@@ -4602,7 +4621,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>332</v>
       </c>
@@ -4629,30 +4648,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
@@ -4679,7 +4698,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>266</v>
       </c>
@@ -4691,6 +4710,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -4699,12 +4719,13 @@
       <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LJ</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>268</v>
       </c>
@@ -4721,7 +4742,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>270</v>
       </c>
@@ -4738,7 +4759,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>271</v>
       </c>
@@ -4759,7 +4780,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>273</v>
       </c>
@@ -4780,7 +4801,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>275</v>
       </c>
@@ -4801,7 +4822,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>276</v>
       </c>
@@ -4822,7 +4843,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>277</v>
       </c>
@@ -4843,7 +4864,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>278</v>
       </c>
@@ -4864,7 +4885,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>279</v>
       </c>
@@ -4885,7 +4906,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>281</v>
       </c>
@@ -4906,7 +4927,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>282</v>
       </c>
@@ -4927,7 +4948,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>283</v>
       </c>
@@ -4948,7 +4969,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>285</v>
       </c>
@@ -4969,7 +4990,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>287</v>
       </c>
@@ -4990,7 +5011,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>289</v>
       </c>
@@ -5011,7 +5032,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>291</v>
       </c>
@@ -5032,7 +5053,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>293</v>
       </c>
@@ -5053,7 +5074,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>295</v>
       </c>
@@ -5074,7 +5095,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>296</v>
       </c>
@@ -5095,7 +5116,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>297</v>
       </c>
@@ -5118,30 +5139,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="35" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="27" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="28" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="28" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
@@ -5168,7 +5189,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -5180,6 +5201,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -5188,12 +5210,13 @@
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LJ</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>225</v>
       </c>
@@ -5210,7 +5233,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>226</v>
       </c>
@@ -5227,7 +5250,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>227</v>
       </c>
@@ -5248,7 +5271,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>229</v>
       </c>
@@ -5269,7 +5292,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>231</v>
       </c>
@@ -5290,7 +5313,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>232</v>
       </c>
@@ -5311,7 +5334,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>233</v>
       </c>
@@ -5332,7 +5355,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>234</v>
       </c>
@@ -5353,7 +5376,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>235</v>
       </c>
@@ -5374,7 +5397,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
@@ -5395,7 +5418,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
@@ -5416,7 +5439,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
@@ -5437,7 +5460,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>241</v>
       </c>
@@ -5458,7 +5481,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>243</v>
       </c>
@@ -5479,7 +5502,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>245</v>
       </c>
@@ -5500,7 +5523,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>247</v>
       </c>
@@ -5521,7 +5544,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
@@ -5542,7 +5565,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>251</v>
       </c>
@@ -5563,7 +5586,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>252</v>
       </c>
@@ -5584,7 +5607,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>253</v>
       </c>
@@ -5605,7 +5628,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>257</v>
       </c>
@@ -5626,7 +5649,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -5637,7 +5660,7 @@
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -5648,7 +5671,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -5659,7 +5682,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>259</v>
       </c>
@@ -5674,7 +5697,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>261</v>
       </c>
@@ -5689,7 +5712,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>263</v>
       </c>
@@ -5710,30 +5733,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
@@ -5760,7 +5783,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
@@ -5772,6 +5795,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -5780,12 +5804,13 @@
       <c r="G2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LJ</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
@@ -5802,7 +5827,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
@@ -5819,7 +5844,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>195</v>
       </c>
@@ -5840,7 +5865,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
@@ -5861,7 +5886,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>199</v>
       </c>
@@ -5882,7 +5907,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
@@ -5903,7 +5928,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>201</v>
       </c>
@@ -5924,7 +5949,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>202</v>
       </c>
@@ -5945,7 +5970,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>203</v>
       </c>
@@ -5966,7 +5991,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>205</v>
       </c>
@@ -5987,7 +6012,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>206</v>
       </c>
@@ -6008,7 +6033,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>207</v>
       </c>
@@ -6029,7 +6054,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>209</v>
       </c>
@@ -6050,7 +6075,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>211</v>
       </c>
@@ -6071,7 +6096,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>213</v>
       </c>
@@ -6092,7 +6117,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>215</v>
       </c>
@@ -6113,7 +6138,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>217</v>
       </c>
@@ -6134,7 +6159,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>219</v>
       </c>
@@ -6155,7 +6180,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>220</v>
       </c>
@@ -6176,7 +6201,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>221</v>
       </c>
@@ -6199,30 +6224,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -6249,7 +6274,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>152</v>
       </c>
@@ -6261,6 +6286,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -6269,12 +6295,13 @@
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LJ</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -6295,7 +6322,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>156</v>
       </c>
@@ -6316,7 +6343,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -6337,7 +6364,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>162</v>
       </c>
@@ -6358,7 +6385,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>164</v>
       </c>
@@ -6379,7 +6406,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>165</v>
       </c>
@@ -6400,7 +6427,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>166</v>
       </c>
@@ -6421,7 +6448,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -6442,7 +6469,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>168</v>
       </c>
@@ -6463,7 +6490,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>170</v>
       </c>
@@ -6484,7 +6511,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
@@ -6505,7 +6532,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>172</v>
       </c>
@@ -6526,7 +6553,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>174</v>
       </c>
@@ -6547,7 +6574,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>176</v>
       </c>
@@ -6568,7 +6595,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>178</v>
       </c>
@@ -6589,7 +6616,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>180</v>
       </c>
@@ -6610,7 +6637,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>182</v>
       </c>
@@ -6631,7 +6658,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>184</v>
       </c>
@@ -6652,7 +6679,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>185</v>
       </c>
@@ -6673,7 +6700,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>186</v>
       </c>
@@ -6696,30 +6723,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -6746,7 +6773,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
@@ -6758,6 +6785,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -6766,12 +6794,13 @@
       <c r="G2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LJ</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -6788,7 +6817,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -6805,7 +6834,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>124</v>
       </c>
@@ -6826,7 +6855,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
@@ -6847,7 +6876,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -6868,7 +6897,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -6889,7 +6918,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -6910,7 +6939,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>131</v>
       </c>
@@ -6931,7 +6960,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>132</v>
       </c>
@@ -6952,7 +6981,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
@@ -6973,7 +7002,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>135</v>
       </c>
@@ -6994,7 +7023,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
@@ -7015,7 +7044,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>138</v>
       </c>
@@ -7036,7 +7065,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -7057,7 +7086,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -7078,7 +7107,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>144</v>
       </c>
@@ -7099,7 +7128,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -7120,7 +7149,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>148</v>
       </c>
@@ -7141,7 +7170,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>149</v>
       </c>
@@ -7162,7 +7191,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>150</v>
       </c>
@@ -7185,30 +7214,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -7235,7 +7264,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -7247,6 +7276,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUM(E2:E23)-SUM(D3:D23)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="6" t="s">
@@ -7255,12 +7285,13 @@
       <c r="G2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="str">
         <f>IF(SUM(D2:D4)&gt;0,"LR","LJ")</f>
+        <v>LJ</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -7277,7 +7308,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -7294,7 +7325,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -7315,7 +7346,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -7336,7 +7367,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
@@ -7357,7 +7388,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -7378,7 +7409,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
@@ -7399,7 +7430,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -7420,7 +7451,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -7441,7 +7472,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -7462,7 +7493,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -7483,7 +7514,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -7504,7 +7535,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
@@ -7525,7 +7556,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>105</v>
       </c>
@@ -7546,7 +7577,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>107</v>
       </c>
@@ -7567,7 +7598,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
@@ -7588,7 +7619,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>111</v>
       </c>
@@ -7609,7 +7640,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -7630,7 +7661,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
@@ -7651,7 +7682,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>115</v>
       </c>
